--- a/Files/college_info/all_colleges/VMEG/VMEG_placements.xlsx
+++ b/Files/college_info/all_colleges/VMEG/VMEG_placements.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91703\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91703\Desktop\gitt\PYTHON PROJECT\github\python_project-dataset\Files\college_info\all_colleges\VMEG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{965EDA06-F2EB-4FB5-82AC-70CE70A19819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64A4FC8-80BC-4F80-95CD-62BA95C78923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FBC85950-8785-4FDE-B4D5-DC0649B8C823}"/>
   </bookViews>
@@ -528,7 +528,38 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -841,7 +872,7 @@
   <dimension ref="A1:D118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H118" sqref="H118"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1594,7 +1625,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="31.8" thickBot="1">
+    <row r="54" spans="1:4" ht="30.6" thickBot="1">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -2510,6 +2541,10 @@
       <sortCondition descending="1" ref="C1:C118"/>
     </sortState>
   </autoFilter>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B59" r:id="rId1" display="http://nniit.com/" xr:uid="{0E9A8E72-A9C4-4697-9343-9C89593499F2}"/>
   </hyperlinks>
